--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -4,47 +4,42 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="17988" windowHeight="4380"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:R13"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>admin123</t>
+    <t>jaikrishnaa</t>
   </si>
   <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Jai</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>dwd</t>
+    <t>jaikrishnaa.git@gamil.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +62,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,39 +371,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -1,47 +1,855 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500649AB-858A-4615-8779-38EB7B884382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="17988" windowHeight="4380"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>Admin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Prerequsite</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_012</t>
+  </si>
+  <si>
+    <t>To verify and validate the signup up feature with no name and no email in signup/login page.</t>
+  </si>
+  <si>
+    <t>https://www.automationexercise.com/login</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Enter no name and no email
+Step 3: Click on signupbutton
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name : 
+Email :</t>
+  </si>
+  <si>
+    <t>User should not be able to register/ redirect to the registration page</t>
+  </si>
+  <si>
+    <t>Working as expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_013</t>
+  </si>
+  <si>
+    <t>To verify and validate the signup up feature with no name and invalid email in signup/login page.</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Enter no name and invalid email
+Step 3: Click on signupbutton
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name : 
+Email : Ja3-.git#gmail~com</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_014</t>
+  </si>
+  <si>
+    <t>To verify and validate the signup up feature with Existing Email in the signup/login page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Try to register with existing user/email
+Step 3: Click on signupbutton
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name : Jaikrishnaa
+Email : Jaikrishnaa.git@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_015</t>
+  </si>
+  <si>
+    <t>To verify and validate the radio button (Mr) in title in the signup page</t>
+  </si>
+  <si>
+    <t>https://www.automationexercise.com/signup</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the Radio button (Mr)
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data 
+Click on Mr radio button</t>
+  </si>
+  <si>
+    <t>User should be able click the radio button(Mr)</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_016</t>
+  </si>
+  <si>
+    <t>To verify and validate the radio button (Mrs) in title in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the Radio button (Mrs)
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data 
+Click on Mrs radio button</t>
+  </si>
+  <si>
+    <t>User should be able click the radio button(Mrs)</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_017</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (Name) with valid name in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Name) with valid name
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name : Jaikrishnaa</t>
+  </si>
+  <si>
+    <t>User should be able to register.</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_018</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (Name) with no name in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Name) with no name
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name :</t>
+  </si>
+  <si>
+    <t>User should not be able to register.
+Message pops up with please fill out this field.</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_019</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (Name) with invalid name in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Name) with invalid name
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Name :123455</t>
+  </si>
+  <si>
+    <t>User should not be able to register.
+Message pops up with invalid Name</t>
+  </si>
+  <si>
+    <t>User is able to register / redirect to registartion page with invalid name</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_020</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (password) with no password in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Password) with valid Password
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Password :</t>
+  </si>
+  <si>
+    <t>User should not be able to register.
+Messaege pops up with please fill this field.</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_021</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (password) with valid password in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Password) with no Password
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Password : Team@A8</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_022</t>
+  </si>
+  <si>
+    <t>To verify and validate the text box (password) with invalid password in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the text box (Password) with invalid Password
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data
+Password : !@~#$%^</t>
+  </si>
+  <si>
+    <t>User should not be able to register.</t>
+  </si>
+  <si>
+    <t>User is able to register</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_023</t>
+  </si>
+  <si>
+    <t>To verify and validate the date drop down in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the date drop down button
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>Data 
+Click on the drop down</t>
+  </si>
+  <si>
+    <t>User should be able to click on the drop down</t>
+  </si>
+  <si>
+    <t>TC_ECOM_Reg_024</t>
+  </si>
+  <si>
+    <t>To verify and validate the month drop down in the signup page</t>
+  </si>
+  <si>
+    <t>Step1: Open the url 
+Step 2: Click on signup button with valid credential
+Step 3: Validate the month drop down button
+Step 4: Analyze the result</t>
+  </si>
+  <si>
+    <t>User should not register/ redirect to the registration page</t>
+  </si>
+  <si>
+    <t>TestCases for All products details page</t>
+  </si>
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Test case Id</t>
+  </si>
+  <si>
+    <t>Pre - Requisite</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Excepted Result</t>
+  </si>
+  <si>
+    <t>Proof</t>
+  </si>
+  <si>
+    <t>Can Be Automated</t>
+  </si>
+  <si>
+    <t>Person Name</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_1</t>
+  </si>
+  <si>
+    <t>To verify and validate the logo of the webpage Product page</t>
+  </si>
+  <si>
+    <t>URL : https://www.automationexercise.com/ is Working</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on logo</t>
+  </si>
+  <si>
+    <t>Laptop , 
+URL : https://automationexercise.com/product</t>
+  </si>
+  <si>
+    <t>User Should able to click logo of the web page</t>
   </si>
   <si>
     <t>Jai</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>dwd</t>
+    <t>TC_ECOM_TestCase_2</t>
+  </si>
+  <si>
+    <t>To verify and validate the women drop down button in Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on women drop down button</t>
+  </si>
+  <si>
+    <t>User Should able to click on women drop down button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_3</t>
+  </si>
+  <si>
+    <t>To verify and validate the Men drop down button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Men drop down button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Men drop down button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_4</t>
+  </si>
+  <si>
+    <t>To verify and validate the Kids drop down button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Kids drop down button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on kids drop down button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_5</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand polo button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand polo button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Your Email Address text box</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_6</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand BIBA button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand BIBA button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand BIBA button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_7</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand H&amp;M button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand H&amp;M button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand H&amp;M button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_8</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand MADAME button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand MADAME button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand MADAME button</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_9</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand MAST AND HARBOUR button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand MAST AND HARBOUR button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand MAST AND HARBOUR button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_10</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand BABYHUG button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand BABYHUG button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand BABYHUG button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_11</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand KOOKIE KIDS button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click onBrand KOOKIE KIDS button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click onBrand KOOKIE KIDS button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_12</t>
+  </si>
+  <si>
+    <t>To verify and validate the Brand ALLEN SOLLY JUNIOR button Product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on Brand ALLEN SOLLY JUNIOR button Productpage</t>
+  </si>
+  <si>
+    <t>User Should able to click on Brand ALLEN SOLLY JUNIOR button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_13</t>
+  </si>
+  <si>
+    <t>To verify and validate the #top button in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on #top button</t>
+  </si>
+  <si>
+    <t>User Should able to click #top button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_14</t>
+  </si>
+  <si>
+    <t>To verify and validate the search bar with valid input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter valid input in seach bar in product page</t>
+  </si>
+  <si>
+    <t>User Should able to enter valid input in search bar</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_15</t>
+  </si>
+  <si>
+    <t>To verify and validate the search button of the search bar in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the search button of seach bar in product page</t>
+  </si>
+  <si>
+    <t>User Should able to click on search button</t>
+  </si>
+  <si>
+    <t>Jhanavi</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_16</t>
+  </si>
+  <si>
+    <t>To verify and validate the add to cart button in all products in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the add to cart button in product page</t>
+  </si>
+  <si>
+    <t>User Should able to click on cart button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_17</t>
+  </si>
+  <si>
+    <t>To verify and validate the view product button in all products in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the view product button in product page</t>
+  </si>
+  <si>
+    <t>User Should able to click on view product button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_18</t>
+  </si>
+  <si>
+    <t>To verify and validate the add to cart button in all products for blue dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the add to cart button for blue dress in product page</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_19</t>
+  </si>
+  <si>
+    <t>To verify and validate the view product button in all products for blue dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the view product button for blue dress in product page</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_20</t>
+  </si>
+  <si>
+    <t>To verify and validate the add to cart button in all products for Sleeveless dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the add to cart button for Sleeveless dress in product page</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_21</t>
+  </si>
+  <si>
+    <t>To verify and validate the view product button in all products for Sleeveless dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the view product button for Sleeveless dress in product page</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_22</t>
+  </si>
+  <si>
+    <t>To verify and validate the add to cart button in all products for Stylish dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the add to cart button for Stylish dress in product page</t>
+  </si>
+  <si>
+    <t>Pranathi</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_23</t>
+  </si>
+  <si>
+    <t>To verify and validate the view product button in all products for Stylish dress in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the view product button for Stylish dress in product page</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_24</t>
+  </si>
+  <si>
+    <t>To verify and validate the Quantity in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the Quantity in product page</t>
+  </si>
+  <si>
+    <t>User Should able to click on Quantity drop down button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_25</t>
+  </si>
+  <si>
+    <t>To verify and validate the name with valid input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter name with valid input in product page</t>
+  </si>
+  <si>
+    <t>User Should able to enter valid input in name</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_26</t>
+  </si>
+  <si>
+    <t>To verify and validate the name with invalid input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter name with invalid input in product page</t>
+  </si>
+  <si>
+    <t>User Should not able to enter invalid input in name</t>
+  </si>
+  <si>
+    <t>User is able to submit with invalid name</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_27</t>
+  </si>
+  <si>
+    <t>To verify and validate the name with no input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter name with no input in product page</t>
+  </si>
+  <si>
+    <t>User Should not able to submit without name</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_28</t>
+  </si>
+  <si>
+    <t>To verify and validate the email with valid input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter email with valid input in product page</t>
+  </si>
+  <si>
+    <t>User Should able to enter valid input in email</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_29</t>
+  </si>
+  <si>
+    <t>To verify and validate the email with invalid input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter email with invalid input in product page</t>
+  </si>
+  <si>
+    <t>User Should not able to enter invalid input in email</t>
+  </si>
+  <si>
+    <t>User is able to submit with invalid email</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Keshav</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_30</t>
+  </si>
+  <si>
+    <t>To verify and validate the email with no input in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Enter email with no input in product page</t>
+  </si>
+  <si>
+    <t>User Should not able to enter input in email</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_31</t>
+  </si>
+  <si>
+    <t>To verify and validate the Add Review Here with input in the product page</t>
+  </si>
+  <si>
+    <t>User Should able to enter input in Add Review</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_32</t>
+  </si>
+  <si>
+    <t>To verify and validate the Submit button in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Click on the Submit button in product page</t>
+  </si>
+  <si>
+    <t>User Should able to click on submit button</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_33</t>
+  </si>
+  <si>
+    <t>To verify and validate the product price in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Check if we can see the product price in product page</t>
+  </si>
+  <si>
+    <t>User Should able to see the product price</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_34</t>
+  </si>
+  <si>
+    <t>To verify and validate the product Availability in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Check if we can see the product Availability in product page</t>
+  </si>
+  <si>
+    <t>User Should able to see the product Availability</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_35</t>
+  </si>
+  <si>
+    <t>To verify and validate the product Condition in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Check if we can see the product Condition in product page</t>
+  </si>
+  <si>
+    <t>User Should able to see the product Condition</t>
+  </si>
+  <si>
+    <t>TC_ECOM_TestCase_36</t>
+  </si>
+  <si>
+    <t>To verify and validate the product Brand in the product page</t>
+  </si>
+  <si>
+    <t>step 1 : Open any browser - Chrome , Firefox 
+step 2 : Type the URL
+step 3 : Check if we can see the product Brand in product page</t>
+  </si>
+  <si>
+    <t>User Should able to see the product Brand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +857,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -66,14 +943,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -82,14 +1201,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,7 +1249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,7 +1321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,64 +1494,1768 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.automationexercise.com/signup" xr:uid="{B5205594-1624-493B-8991-3A63D3BA8F60}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.automationexercise.com/signup" xr:uid="{1E45EE48-3BA7-4AFE-9DB2-3C8E39F96475}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.automationexercise.com/signup" xr:uid="{0DA3A477-40EE-40C2-84FE-286A9D2958AC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{12AF5AFC-4358-42E3-AEC2-7C6D483981F3}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{ECD80210-2811-4F27-81AB-FEFB22124C2F}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{CC8E7829-70C1-405A-950F-F350E9E326B5}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{2083B1F3-F1E8-44D3-8803-61397B639BCF}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{AC2A499E-F93A-45F7-850A-5D361F5C8F63}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{5F9C611E-1E6F-4512-ABA1-3849C5BEC953}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{B367136D-B8C6-4E55-8B48-8F6922810DCE}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{B1F49E5B-1264-4D12-8336-88C82B08E88B}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{342DDB36-D326-4C4F-80A0-873BAB706E77}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{BA516897-531C-4452-9070-CAB5A33E12E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="21">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="21">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="21">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="21">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="21">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="21">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="21">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="21">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="no email no name" sheetId="8" r:id="rId6"/>
     <sheet name="no name valid email" sheetId="9" r:id="rId7"/>
     <sheet name="valid name invalid email" sheetId="10" r:id="rId8"/>
+    <sheet name="Login invalid Credentials" sheetId="11" r:id="rId9"/>
+    <sheet name="Login valid Credentials" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>jaikrishnaa</t>
   </si>
@@ -60,6 +62,15 @@
   </si>
   <si>
     <t>jiak@p</t>
+  </si>
+  <si>
+    <t>jaikrishnagit@gmail.com</t>
+  </si>
+  <si>
+    <t>Team@A8</t>
+  </si>
+  <si>
+    <t>Team@A23</t>
   </si>
 </sst>
 </file>
@@ -437,6 +448,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
@@ -617,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -640,4 +682,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="17400" windowHeight="8076" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Login invalid Credentials" sheetId="11" r:id="rId9"/>
     <sheet name="Login valid Credentials" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O26"/>
 </workbook>
 </file>
 
